--- a/Moderate_Control_Four_Bytes_Result.xlsx
+++ b/Moderate_Control_Four_Bytes_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\Tianyu Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04238D1C-E9D0-4AA1-9547-32A5DD32F5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440CAF5E-5962-48AC-959C-57A4F0746E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4430" yWindow="1030" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="3380" windowWidth="14380" windowHeight="2170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -485,90 +485,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:C136"/>
+  <dimension ref="A5:D136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="60.453125" customWidth="1"/>
-    <col min="3" max="3" width="65.6328125" customWidth="1"/>
+    <col min="1" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="60.453125" customWidth="1"/>
+    <col min="4" max="4" width="65.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>A6+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" ref="A8:A73" si="0">A7+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -670,356 +670,356 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>A37+1</f>
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>15</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>16</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B71" s="1" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>A70+1</f>
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" ref="A74:A133" si="1">A73+1</f>
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -1121,302 +1121,302 @@
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B104" s="1" t="s">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C104" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <f>A103+1</f>
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>36</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>37</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
         <v>34</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>38</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>35</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>39</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>40</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>41</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>42</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <f>A133+1</f>
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" ref="A135:A136" si="2">A134+1</f>
         <v>126</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>43</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Moderate_Control_Four_Bytes_Result.xlsx
+++ b/Moderate_Control_Four_Bytes_Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FYP\Tianyu Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440CAF5E-5962-48AC-959C-57A4F0746E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16645A3-5966-487A-861F-6B9F86DB3FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="3380" windowWidth="14380" windowHeight="2170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15612" yWindow="4644" windowWidth="23040" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,12 +180,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,11 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,938 +499,1001 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:D136"/>
+  <dimension ref="A5:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="60.453125" customWidth="1"/>
-    <col min="4" max="4" width="65.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="60.44140625" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>A6+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ref="A8:A73" si="0">A7+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D38" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>A37+1</f>
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>8</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B45" s="2"/>
+      <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>15</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>16</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C71" s="1" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>A70+1</f>
         <v>64</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" ref="A74:A133" si="1">A73+1</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C104" s="1" t="s">
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>A103+1</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>36</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>37</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>34</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>38</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>35</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>39</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>40</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>41</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>42</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E132" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <f>A133+1</f>
         <v>125</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <f t="shared" ref="A135:A136" si="2">A134+1</f>
         <v>126</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>43</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>33</v>
       </c>
     </row>
